--- a/data/section.xlsx
+++ b/data/section.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D5255-BE92-4123-BD57-2889F9721F8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD335C8-8F93-4C6F-9C1B-1F9626D14046}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" xr2:uid="{6070F743-504F-4E59-B243-B570CA137881}"/>
   </bookViews>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>take_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sec_capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,6 +560,10 @@
   </si>
   <si>
     <t>instructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,19 +961,19 @@
         <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
         <v>102</v>
       </c>
       <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>2108</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>2204</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>2306</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1089,10 +1089,10 @@
         <v>2406</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>3406</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>4204</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>4103</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>5201</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>5306</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>5402</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>6201</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>6204</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>6308</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>6406</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>2019</v>
       </c>
       <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>2019</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>2019</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>2108</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>2204</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>2306</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>2019</v>
       </c>
       <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="F22" t="s">
-        <v>127</v>
-      </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>2019</v>
       </c>
       <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
         <v>128</v>
       </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>2019</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1726,13 +1726,13 @@
         <v>2019</v>
       </c>
       <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
         <v>126</v>
       </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>2019</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1793,10 +1793,10 @@
         <v>2202</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>2203</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>2204</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>2306</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>2203</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>2201</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>2301</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>2501</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>2301</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>2501</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>5402</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>6201</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>6204</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>6308</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>6406</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2273,10 +2273,10 @@
         <v>2203</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>2204</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>2306</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>2308</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2401,10 +2401,10 @@
         <v>2303</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>6308</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         <v>6406</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>2019</v>
       </c>
       <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
         <v>110</v>
       </c>
-      <c r="F49" t="s">
-        <v>111</v>
-      </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>2019</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>2019</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H51">
         <v>0</v>
